--- a/BasisEqual/Massachusetts_Basis.xlsx
+++ b/BasisEqual/Massachusetts_Basis.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrEth\Documents\TestProject\Covid-19DataProject-master\BasisEqual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA10D699-6F8E-49D3-AA0C-04831E8E934F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -241,11 +247,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +315,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -355,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,9 +401,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,6 +453,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,14 +646,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -623,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -631,7 +688,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -645,7 +702,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -656,7 +713,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -667,7 +724,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -678,7 +735,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -692,7 +749,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -706,7 +763,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -720,7 +777,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -734,7 +791,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -748,7 +805,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -762,7 +819,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -776,7 +833,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -790,7 +847,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -804,7 +861,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -818,7 +875,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -832,7 +889,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -846,7 +903,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -860,7 +917,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -874,7 +931,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -888,7 +945,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -902,7 +959,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -916,7 +973,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -930,7 +987,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -944,18 +1001,21 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
       </c>
+      <c r="C26" s="2">
+        <v>43914</v>
+      </c>
       <c r="D26" s="2">
         <v>44025</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -969,18 +1029,21 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
       </c>
+      <c r="C28" s="2">
+        <v>43914</v>
+      </c>
       <c r="D28" s="2">
         <v>44025</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -994,18 +1057,21 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
       </c>
+      <c r="C30" s="2">
+        <v>43905</v>
+      </c>
       <c r="D30" s="2">
         <v>44025</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1019,7 +1085,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1033,7 +1099,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1047,7 +1113,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1061,7 +1127,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1072,7 +1138,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1083,7 +1149,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1094,7 +1160,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -1105,7 +1171,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -1116,7 +1182,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1127,7 +1193,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -1141,7 +1207,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1155,7 +1221,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1169,7 +1235,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1183,7 +1249,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1197,7 +1263,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -1211,7 +1277,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -1225,7 +1291,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -1236,7 +1302,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -1250,7 +1316,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1264,7 +1330,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1275,7 +1341,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -1286,7 +1352,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
